--- a/OLS_data_graphs.xlsx
+++ b/OLS_data_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose_\Documents\02_Work\02_Jobs_Applications\Konfio\DS_JCDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954E1A6D-1ACD-4724-A4B1-287AE03FBDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9656ADE-1127-43E3-8175-8780049E3BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="408" windowWidth="21324" windowHeight="10848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS_data" sheetId="1" r:id="rId1"/>
@@ -772,43 +772,43 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6728.178822892979</c:v>
+                  <c:v>2394.7599807268784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13425.590438435593</c:v>
+                  <c:v>14956.381952092512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15099.943342321247</c:v>
+                  <c:v>18096.787444933922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21797.354957863859</c:v>
+                  <c:v>30658.409416299553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23471.707861749514</c:v>
+                  <c:v>33798.814909140958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25146.060765635168</c:v>
+                  <c:v>36939.220401982369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26820.413669520822</c:v>
+                  <c:v>40079.625894823781</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
-                  <c:v>28494.766573406472</c:v>
+                  <c:v>43220.031387665193</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0">
-                  <c:v>30169.119477292126</c:v>
+                  <c:v>46360.43688050659</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0">
-                  <c:v>31843.47238117778</c:v>
+                  <c:v>49500.842373348001</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>33517.825285063431</c:v>
+                  <c:v>52641.247866189413</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0">
-                  <c:v>35192.178188949089</c:v>
+                  <c:v>55781.653359030825</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>36866.531092834739</c:v>
+                  <c:v>58922.058851872236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -39614,8 +39614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39667,11 +39667,11 @@
       </c>
       <c r="G2" s="1">
         <f>C22+C21*B2</f>
-        <v>6728.178822892979</v>
+        <v>2394.7599807268784</v>
       </c>
       <c r="M2" s="5">
         <f>SQRT((F19-(C22*C19)-(C21*D19))/(B8-2))</f>
-        <v>18621.396870356191</v>
+        <v>14187.545828204724</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -39696,7 +39696,7 @@
       </c>
       <c r="G3" s="1">
         <f>C22+C21*B3</f>
-        <v>13425.590438435593</v>
+        <v>14956.381952092512</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -39721,7 +39721,7 @@
       </c>
       <c r="G4" s="1">
         <f>C22+C21*B4</f>
-        <v>15099.943342321247</v>
+        <v>18096.787444933922</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -39746,7 +39746,7 @@
       </c>
       <c r="G5" s="1">
         <f>C22+C21*B5</f>
-        <v>21797.354957863859</v>
+        <v>30658.409416299553</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -39771,7 +39771,7 @@
       </c>
       <c r="G6" s="1">
         <f>C22+C21*B6</f>
-        <v>23471.707861749514</v>
+        <v>33798.814909140958</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -39796,7 +39796,7 @@
       </c>
       <c r="G7" s="1">
         <f>C22+C21*B7</f>
-        <v>25146.060765635168</v>
+        <v>36939.220401982369</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -39821,7 +39821,7 @@
       </c>
       <c r="G8" s="1">
         <f>C22+C21*B8</f>
-        <v>26820.413669520822</v>
+        <v>40079.625894823781</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -39832,8 +39832,8 @@
         <v>14</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" ref="G9:G14" si="2">$C$22+($C$21*B9)</f>
-        <v>28494.766573406472</v>
+        <f>$C$22+($C$21*B9)</f>
+        <v>43220.031387665193</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -39844,8 +39844,8 @@
         <v>15</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>30169.119477292126</v>
+        <f>$C$22+($C$21*B10)</f>
+        <v>46360.43688050659</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -39856,8 +39856,8 @@
         <v>16</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>31843.47238117778</v>
+        <f t="shared" ref="G9:G14" si="2">$C$22+($C$21*B11)</f>
+        <v>49500.842373348001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -39869,7 +39869,7 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>33517.825285063431</v>
+        <v>52641.247866189413</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -39881,7 +39881,7 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="2"/>
-        <v>35192.178188949089</v>
+        <v>55781.653359030825</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -39892,8 +39892,8 @@
         <v>19</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="2"/>
-        <v>36866.531092834739</v>
+        <f>$C$22+($C$21*B14)</f>
+        <v>58922.058851872236</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -39928,8 +39928,8 @@
         <v>10</v>
       </c>
       <c r="B18" s="1">
-        <f>AVERAGE(B2:B17)</f>
-        <v>12.076923076923077</v>
+        <f>AVERAGE(B2:B8)</f>
+        <v>8.2857142857142865</v>
       </c>
       <c r="C18" s="1">
         <f>AVERAGE(C2:C8)</f>
@@ -39969,7 +39969,7 @@
       </c>
       <c r="C21">
         <f>(D19-(B8*B18*C18))/(E19-(B8*B18*B18))</f>
-        <v>1674.3529038856534</v>
+        <v>3140.4054928414084</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -39978,7 +39978,7 @@
       </c>
       <c r="C22">
         <f>C18-(C21*B18)</f>
-        <v>5053.8259190073259</v>
+        <v>-745.64551211452999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
